--- a/CSVToScriptableObject/Assets/Tables/TestTableThird.xlsx
+++ b/CSVToScriptableObject/Assets/Tables/TestTableThird.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity Project\CSVToScriptableObject\Assets\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git Hub\CSVToScriptableObject\CSVToScriptableObject\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7041200-8433-4CE9-AC17-A2F280E075BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC196AFB-F579-4BA2-91C5-AD0490FB317D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6585" yWindow="1875" windowWidth="28800" windowHeight="18255" xr2:uid="{950BFA12-91E0-4A26-A448-4D1BDCD4031A}"/>
+    <workbookView xWindow="-28920" yWindow="2220" windowWidth="29040" windowHeight="15720" xr2:uid="{950BFA12-91E0-4A26-A448-4D1BDCD4031A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -151,7 +151,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,6 +161,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -179,11 +185,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -523,7 +532,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -546,19 +555,19 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
